--- a/data/dividends_info_20260216.xlsx
+++ b/data/dividends_info_20260216.xlsx
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>53.59999847412109</v>
+        <v>53.25</v>
       </c>
       <c r="I2" t="n">
-        <v>1.305970186431947</v>
+        <v>1.314553990610329</v>
       </c>
       <c r="J2" t="n">
         <v>364</v>
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>53.59999847412109</v>
+        <v>53.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.10447772878612</v>
+        <v>4.131455399061033</v>
       </c>
       <c r="J3" t="n">
         <v>91</v>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19.35499954223633</v>
+        <v>19.125</v>
       </c>
       <c r="I4" t="n">
-        <v>4.081632749595618</v>
+        <v>4.130718954248366</v>
       </c>
       <c r="J4" t="n">
         <v>91</v>
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5.697000026702881</v>
+        <v>5.651999950408936</v>
       </c>
       <c r="I5" t="n">
-        <v>3.335088627513345</v>
+        <v>3.361641926169038</v>
       </c>
       <c r="J5" t="n">
         <v>91</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.5</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="I6" t="n">
-        <v>6.005882352941176</v>
+        <v>5.874568753172284</v>
       </c>
       <c r="J6" t="n">
         <v>77</v>
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.824999809265137</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="I8" t="n">
-        <v>7.326007530743596</v>
+        <v>7.363770291738667</v>
       </c>
       <c r="J8" t="n">
         <v>63</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>11.75</v>
+        <v>11.89500045776367</v>
       </c>
       <c r="I9" t="n">
-        <v>4.595744680851064</v>
+        <v>4.539722397804121</v>
       </c>
       <c r="J9" t="n">
         <v>63</v>
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25.70000076293945</v>
+        <v>25.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.291828636679189</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="J10" t="n">
         <v>63</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>17.69000053405762</v>
+        <v>17.72999954223633</v>
       </c>
       <c r="I11" t="n">
-        <v>3.561333979538862</v>
+        <v>3.553299584126986</v>
       </c>
       <c r="J11" t="n">
         <v>63</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>28.44499969482422</v>
+        <v>27.85000038146973</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3164000737056649</v>
+        <v>0.323159780133728</v>
       </c>
       <c r="J12" t="n">
         <v>35</v>
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.1840000003576279</v>
+        <v>0.1879999935626984</v>
       </c>
       <c r="I14" t="n">
-        <v>32.60869558879468</v>
+        <v>31.9148947098181</v>
       </c>
       <c r="J14" t="n">
         <v>-14</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9.305999755859375</v>
+        <v>9.180000305175781</v>
       </c>
       <c r="I15" t="n">
-        <v>2.471523812959313</v>
+        <v>2.505446539803747</v>
       </c>
       <c r="J15" t="n">
         <v>-28</v>
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.276000022888184</v>
+        <v>6.291999816894531</v>
       </c>
       <c r="I16" t="n">
-        <v>1.924792854675747</v>
+        <v>1.919898339406212</v>
       </c>
       <c r="J16" t="n">
         <v>-28</v>
@@ -3039,7 +3039,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CAREL INDUSTRIES S.p.A.</t>
+          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3056,7 +3056,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Banca Monte dei Paschi di Siena S.p.A.</t>
+          <t>CAREL INDUSTRIES S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3073,7 +3073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3083,14 +3083,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3100,14 +3100,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3134,14 +3134,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3151,14 +3151,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3175,7 +3175,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3192,7 +3192,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3202,14 +3202,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3226,7 +3226,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3236,14 +3236,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3253,14 +3253,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3277,7 +3277,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3287,14 +3287,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3311,7 +3311,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3345,7 +3345,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3362,7 +3362,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3379,7 +3379,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3396,7 +3396,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3413,7 +3413,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3430,7 +3430,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3457,14 +3457,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3481,7 +3481,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3498,7 +3498,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3508,14 +3508,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3542,14 +3542,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3566,7 +3566,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3576,14 +3576,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3600,7 +3600,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3610,14 +3610,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3634,7 +3634,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3668,7 +3668,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3678,14 +3678,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3695,14 +3695,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3746,14 +3746,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3770,7 +3770,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3787,7 +3787,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3838,7 +3838,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3855,7 +3855,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3865,14 +3865,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3889,7 +3889,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3906,7 +3906,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3923,7 +3923,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3933,14 +3933,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3950,14 +3950,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3974,7 +3974,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3984,14 +3984,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4008,7 +4008,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4025,7 +4025,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4035,14 +4035,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4093,7 +4093,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4110,7 +4110,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4127,7 +4127,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4137,14 +4137,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4161,7 +4161,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4171,14 +4171,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4195,7 +4195,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4229,7 +4229,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4246,7 +4246,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4263,7 +4263,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4273,14 +4273,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4297,7 +4297,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4307,14 +4307,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4324,14 +4324,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4348,7 +4348,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4365,7 +4365,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4399,7 +4399,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4433,7 +4433,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4450,7 +4450,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4460,14 +4460,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4494,14 +4494,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4552,7 +4552,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4569,7 +4569,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4586,7 +4586,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4596,14 +4596,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4613,14 +4613,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4630,14 +4630,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4647,14 +4647,14 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4664,14 +4664,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4681,14 +4681,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4705,7 +4705,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Technoprobe S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4715,14 +4715,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>BREMBO N.V.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4739,7 +4739,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RISANAMENTO S.p.A.</t>
+          <t>Eni S.p.A.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4756,7 +4756,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Pattern S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -4773,7 +4773,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>RISANAMENTO S.p.A.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4783,14 +4783,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Eni S.p.A.</t>
+          <t>STAR7 S.p.A.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4800,14 +4800,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BREMBO N.V.</t>
+          <t>Technoprobe S.p.A.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4841,7 +4841,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>STAR7 S.p.A.</t>
+          <t>Pattern S.p.A.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
@@ -4884,202 +4884,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>BREMBO N.V.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ESPE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Eni S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Industrie De Nora S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pattern S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>RISANAMENTO S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>STAR7 S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>STAR7 S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Technoprobe S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>doValue S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-18</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>